--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/79_Yalova_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/79_Yalova_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDF8D986-8738-4418-8F34-FBA37262E7D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA4A068A-938F-4511-9443-1C6556614ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="648" xr2:uid="{DA7E5EDB-54C5-47D5-BF95-7E31984EF470}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="648" xr2:uid="{09324B11-9FC6-4682-8A1F-E62962824407}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -915,14 +915,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{3BC8BF4D-13D3-4A21-8181-FEC521B2643B}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{16701BA2-02D3-429C-A35E-B94CEE78D57C}"/>
-    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{E91BB6E2-50F4-4948-B1D9-3F44E4915548}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{F574224B-CF24-4843-B4AC-B1B5545E9A94}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{8BF7DE22-9797-4ED4-9EA3-EE8B177F4E59}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{8EBDEDC0-F3E4-4D20-B88E-D325DFF54273}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{A3092404-82AF-4C55-A274-F1F6EE217725}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{F31C4A77-4625-4E8E-A2BF-72374E3217F4}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{73C47EEA-D8A1-44AE-956C-EBE79719347C}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{AD5B63DA-3D51-4645-9CF7-525D1284AD03}"/>
+    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{AF0DE5F1-108C-4037-B844-4157E7498E2F}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{3DC6A454-C96C-43C0-B569-554AEB1FB840}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{127057EA-2DE3-44C0-8A5B-CCA8AA2DFFDC}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{0C983A53-E62D-4E7D-8C02-24D5B6D136A5}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{04BADAFF-70E3-4A57-B383-9FBEE5FA4AE0}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{E2550523-1F16-47EF-9073-F865E3B1FACF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1292,7 +1292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B4F1DEE-FA0E-4E74-93E2-B9A52BABA4B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6A6878-CFF9-48C1-A2F1-D684F16CCB8E}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2570,7 +2570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58343882-9726-40D5-8A08-43E10A7C429F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B9753F5-7DFC-408C-B67D-4292AEAC7127}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3812,7 +3812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E0C2233-3CD9-43FA-AC23-0BFE718BC930}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5186F43B-1FA0-4E3F-B5DA-A1C619B08CD4}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5048,7 +5048,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E243064-9062-43DA-9A25-7931578E8A43}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{461A6FE1-3526-4AA5-B922-2ADADDD49AC7}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6280,7 +6280,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E48270F-8027-4766-985D-A4BA82418EC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41C35762-990C-46B8-B621-C88E295FD3A4}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7557,7 +7557,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B407A7-77E8-480F-AE3B-486FC2C998F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E14CF1-0A6E-4276-B755-7BC105C31BC8}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8834,7 +8834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C00DB29-141C-4CDC-9960-3A155C4375DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451863C0-71A8-4201-BA89-AE079641EBE2}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10107,7 +10107,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BF522A-46ED-4002-A990-DEBE6335FCB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C383DE7-5917-4CFA-9760-A0250C2D613F}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11380,7 +11380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD43A920-773E-41A1-8154-045189A7BF26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DBFDB78-99CC-4AB8-AE95-A3CE6818C5C3}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -12654,7 +12654,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE25A09E-4AF6-453D-8BAD-2877339B8330}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520EE572-375A-44A6-ACA4-AE40B85C9E3F}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -13924,7 +13924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB95A48-05F5-45E4-A4E8-C5FC012AC3EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98470E46-6325-434F-B2C2-84D0FC7B1BF6}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -15186,7 +15186,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01AA392-0B54-460E-9CBF-62E8C5886C6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F070A7BF-5AAC-491F-9D85-9AFDD7063C59}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
